--- a/medicine/Sexualité et sexologie/Séduction/Séduction.xlsx
+++ b/medicine/Sexualité et sexologie/Séduction/Séduction.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9duction</t>
+          <t>Séduction</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La séduction désigne, en science sociale, un ensemble de procédés de manipulation visant à obtenir une faveur, donner une image avantageuse de soi ou susciter délibérément une émotion, une admiration, une attraction, voire un sentiment amoureux de la part d'un ou de plusieurs individus.
 Elle possède, selon le but recherché, des connotations négatives si elle nuit à autrui, ou au contraire être perçue culturellement comme positive dans le cas par exemple de la séduction amoureuse pour laquelle elle est associée à une forte empathie.
